--- a/Code/Results/Cases/Case_4_152/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_152/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.87216944109049</v>
+        <v>13.36931025828373</v>
       </c>
       <c r="C2">
-        <v>7.768911787431499</v>
+        <v>9.422897799850974</v>
       </c>
       <c r="D2">
-        <v>6.981215367322865</v>
+        <v>6.026864162184811</v>
       </c>
       <c r="E2">
-        <v>8.119015271233785</v>
+        <v>12.73022404250567</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.127776091312584</v>
+        <v>3.702333941454289</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.60670595175729</v>
+        <v>9.739424589096744</v>
       </c>
       <c r="L2">
-        <v>6.217259248862075</v>
+        <v>10.02888488763979</v>
       </c>
       <c r="M2">
-        <v>9.675458225721764</v>
+        <v>14.69083017942248</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.63028465847934</v>
+        <v>31.34136482988521</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.08577138182464</v>
+        <v>13.20755144935303</v>
       </c>
       <c r="C3">
-        <v>7.73571826851497</v>
+        <v>9.406477123265226</v>
       </c>
       <c r="D3">
-        <v>6.496945611021459</v>
+        <v>5.91527320067409</v>
       </c>
       <c r="E3">
-        <v>8.115630671253825</v>
+        <v>12.75243137404825</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.133901108444369</v>
+        <v>3.704593855806451</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.992656695130057</v>
+        <v>9.623372056246186</v>
       </c>
       <c r="L3">
-        <v>6.143203580668839</v>
+        <v>10.03790385804664</v>
       </c>
       <c r="M3">
-        <v>9.383650807026884</v>
+        <v>14.67712137138527</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.45547990118016</v>
+        <v>31.37618706766923</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.58188598945818</v>
+        <v>13.11047279115062</v>
       </c>
       <c r="C4">
-        <v>7.715252719550268</v>
+        <v>9.396129532451353</v>
       </c>
       <c r="D4">
-        <v>6.215523811300581</v>
+        <v>5.847468569719559</v>
       </c>
       <c r="E4">
-        <v>8.117017348249639</v>
+        <v>12.76757820744424</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.137775359196986</v>
+        <v>3.7060552135525</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.596399475907424</v>
+        <v>9.553658276080297</v>
       </c>
       <c r="L4">
-        <v>6.100182515000275</v>
+        <v>10.04479364810983</v>
       </c>
       <c r="M4">
-        <v>9.20469540176996</v>
+        <v>14.67112766708207</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.36235470778772</v>
+        <v>31.40308415090342</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.37140009446277</v>
+        <v>13.071524050185</v>
       </c>
       <c r="C5">
-        <v>7.706889037252902</v>
+        <v>9.391846404576867</v>
       </c>
       <c r="D5">
-        <v>6.104626028310974</v>
+        <v>5.820058271639576</v>
       </c>
       <c r="E5">
-        <v>8.118433787182761</v>
+        <v>12.77413095103176</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.139383463996018</v>
+        <v>3.706669336677072</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.430114241514524</v>
+        <v>9.525671219570059</v>
       </c>
       <c r="L5">
-        <v>6.083270327212667</v>
+        <v>10.04794169675047</v>
       </c>
       <c r="M5">
-        <v>9.131923494828479</v>
+        <v>14.66929752719524</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.32788572945704</v>
+        <v>31.41543054314414</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.33614298906184</v>
+        <v>13.0650949567113</v>
       </c>
       <c r="C6">
-        <v>7.705498748098398</v>
+        <v>9.391131192635461</v>
       </c>
       <c r="D6">
-        <v>6.086070078005189</v>
+        <v>5.815521351095447</v>
       </c>
       <c r="E6">
-        <v>8.118719824895027</v>
+        <v>12.7752420035887</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.139652281435972</v>
+        <v>3.706772436999058</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.402213457237444</v>
+        <v>9.52105044576766</v>
       </c>
       <c r="L6">
-        <v>6.080499547813741</v>
+        <v>10.04848499804331</v>
       </c>
       <c r="M6">
-        <v>9.119852089198139</v>
+        <v>14.66903069676085</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.32236960947407</v>
+        <v>31.41756429043268</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.579067935089</v>
+        <v>13.10994497607706</v>
       </c>
       <c r="C7">
-        <v>7.715140023522414</v>
+        <v>9.396072037152649</v>
       </c>
       <c r="D7">
-        <v>6.214037758523067</v>
+        <v>5.847097956664586</v>
       </c>
       <c r="E7">
-        <v>8.11703302996462</v>
+        <v>12.76766503998942</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.137796926949513</v>
+        <v>3.706063420408865</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.594176312126768</v>
+        <v>9.553279080483145</v>
       </c>
       <c r="L7">
-        <v>6.099951920417979</v>
+        <v>10.04483472502188</v>
       </c>
       <c r="M7">
-        <v>9.203713215530694</v>
+        <v>14.67110050221049</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.36187588014333</v>
+        <v>31.40324505059784</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.60545783918826</v>
+        <v>13.31309954728628</v>
       </c>
       <c r="C8">
-        <v>7.757482589737064</v>
+        <v>9.417291171357293</v>
       </c>
       <c r="D8">
-        <v>6.817646889132785</v>
+        <v>5.988264483091312</v>
       </c>
       <c r="E8">
-        <v>8.117117131335034</v>
+        <v>12.73756756873</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.129864932020843</v>
+        <v>3.703097887036277</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.39898516327809</v>
+        <v>9.69910998448762</v>
       </c>
       <c r="L8">
-        <v>6.191218765196982</v>
+        <v>10.0317142579325</v>
       </c>
       <c r="M8">
-        <v>9.574856239111591</v>
+        <v>14.68560221816337</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.56700971620296</v>
+        <v>31.35222589646382</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.61038023395442</v>
+        <v>13.72712544562063</v>
       </c>
       <c r="C9">
-        <v>7.839979991640885</v>
+        <v>9.456785752711767</v>
       </c>
       <c r="D9">
-        <v>7.936024124951638</v>
+        <v>6.268942465225133</v>
       </c>
       <c r="E9">
-        <v>8.145672866879455</v>
+        <v>12.69052915981029</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.115173008734912</v>
+        <v>3.697865004326369</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.82409766258037</v>
+        <v>9.995807443501342</v>
       </c>
       <c r="L9">
-        <v>6.389446090821059</v>
+        <v>10.01669417081402</v>
       </c>
       <c r="M9">
-        <v>10.30033808713044</v>
+        <v>14.73312918491212</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.08589193892669</v>
+        <v>31.29599890814325</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.96949463698757</v>
+        <v>14.03793161495144</v>
       </c>
       <c r="C10">
-        <v>7.900485472155857</v>
+        <v>9.484498727450518</v>
       </c>
       <c r="D10">
-        <v>8.681103815305022</v>
+        <v>6.475140526334042</v>
       </c>
       <c r="E10">
-        <v>8.185209097797239</v>
+        <v>12.66326117837673</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.104848967060165</v>
+        <v>3.694371686529809</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.77787965457047</v>
+        <v>10.21827028257364</v>
       </c>
       <c r="L10">
-        <v>6.546551574702114</v>
+        <v>10.01215943848612</v>
       </c>
       <c r="M10">
-        <v>10.827092463489</v>
+        <v>14.77947770820453</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.54329616080778</v>
+        <v>31.28146036359784</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.55715331545889</v>
+        <v>14.18014400149806</v>
       </c>
       <c r="C11">
-        <v>7.928046551798822</v>
+        <v>9.496820199387743</v>
       </c>
       <c r="D11">
-        <v>9.003960318753348</v>
+        <v>6.568464573774249</v>
       </c>
       <c r="E11">
-        <v>8.207497537420055</v>
+        <v>12.6524361691523</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.100241089064894</v>
+        <v>3.692857946582139</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.19174518853336</v>
+        <v>10.32001000742144</v>
       </c>
       <c r="L11">
-        <v>6.620452010153975</v>
+        <v>10.01150078093117</v>
       </c>
       <c r="M11">
-        <v>11.06452253478326</v>
+        <v>14.80299404568719</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.76895102324744</v>
+        <v>31.28066403968798</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.77535622552167</v>
+        <v>14.23406370879327</v>
       </c>
       <c r="C12">
-        <v>7.938494047130286</v>
+        <v>9.501444713102551</v>
       </c>
       <c r="D12">
-        <v>9.123950250601872</v>
+        <v>6.603697809457707</v>
       </c>
       <c r="E12">
-        <v>8.21657915344883</v>
+        <v>12.64856381410853</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.098507762879295</v>
+        <v>3.692295511338366</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.34561395399916</v>
+        <v>10.35857784060104</v>
       </c>
       <c r="L12">
-        <v>6.648780786018634</v>
+        <v>10.01145254483097</v>
       </c>
       <c r="M12">
-        <v>11.15405772143275</v>
+        <v>14.81224393986339</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.85700924404775</v>
+        <v>31.28119858948726</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.72855376315433</v>
+        <v>14.2224489693639</v>
       </c>
       <c r="C13">
-        <v>7.93624342165959</v>
+        <v>9.500450586154422</v>
       </c>
       <c r="D13">
-        <v>9.098208453606727</v>
+        <v>6.596115026592836</v>
       </c>
       <c r="E13">
-        <v>8.214594369407219</v>
+        <v>12.6493877107288</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.098880570199498</v>
+        <v>3.692416163034784</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.31260198446986</v>
+        <v>10.35027030842651</v>
       </c>
       <c r="L13">
-        <v>6.642664445464716</v>
+        <v>10.01145399821884</v>
       </c>
       <c r="M13">
-        <v>11.13479220621155</v>
+        <v>14.81023655865999</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.83792708964877</v>
+        <v>31.28104629013967</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.57519137385838</v>
+        <v>14.1845789588102</v>
       </c>
       <c r="C14">
-        <v>7.928905825241338</v>
+        <v>9.497201491747738</v>
       </c>
       <c r="D14">
-        <v>9.013877173193142</v>
+        <v>6.571365580051546</v>
       </c>
       <c r="E14">
-        <v>8.208231699923747</v>
+        <v>12.65211304354829</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.100098262208876</v>
+        <v>3.692811458860354</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.20446107770471</v>
+        <v>10.32318238692372</v>
       </c>
       <c r="L14">
-        <v>6.622775764749496</v>
+        <v>10.01149278500435</v>
       </c>
       <c r="M14">
-        <v>11.07189645614732</v>
+        <v>14.80374816003338</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.77614291004638</v>
+        <v>31.28069126467957</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.48069066852887</v>
+        <v>14.16138968691799</v>
       </c>
       <c r="C15">
-        <v>7.924412903629974</v>
+        <v>9.49520593137045</v>
       </c>
       <c r="D15">
-        <v>8.96192770552522</v>
+        <v>6.55619085557594</v>
       </c>
       <c r="E15">
-        <v>8.204418600030461</v>
+        <v>12.65381192169231</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.100845605501466</v>
+        <v>3.693054991883598</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.13785094796822</v>
+        <v>10.3065945481708</v>
       </c>
       <c r="L15">
-        <v>6.610638057476844</v>
+        <v>10.01154271981639</v>
       </c>
       <c r="M15">
-        <v>11.03332064525351</v>
+        <v>14.79981857428531</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.73864026455662</v>
+        <v>31.28058266637854</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.93047979914972</v>
+        <v>14.02864986486576</v>
       </c>
       <c r="C16">
-        <v>7.89868547886638</v>
+        <v>9.483687720696201</v>
       </c>
       <c r="D16">
-        <v>8.659684448669523</v>
+        <v>6.469028698710639</v>
       </c>
       <c r="E16">
-        <v>8.18384101510806</v>
+        <v>12.6640003763095</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.105151787921701</v>
+        <v>3.694472125241399</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.75043179445828</v>
+        <v>10.21162909029006</v>
       </c>
       <c r="L16">
-        <v>6.541770470604566</v>
+        <v>10.01223067796305</v>
       </c>
       <c r="M16">
-        <v>10.81152644789415</v>
+        <v>14.77798938375607</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.52890965623094</v>
+        <v>31.28162943824719</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.58515276217328</v>
+        <v>13.9473925550012</v>
       </c>
       <c r="C17">
-        <v>7.882915604662885</v>
+        <v>9.476548361023443</v>
       </c>
       <c r="D17">
-        <v>8.470179177278924</v>
+        <v>6.415407857914422</v>
       </c>
       <c r="E17">
-        <v>8.17233547985855</v>
+        <v>12.67065498747933</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.107815379747821</v>
+        <v>3.695360759694863</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.50765195606762</v>
+        <v>10.15348307556663</v>
       </c>
       <c r="L17">
-        <v>6.500141348573529</v>
+        <v>10.0130118662798</v>
       </c>
       <c r="M17">
-        <v>10.67485607751824</v>
+        <v>14.76521738166602</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.4048061921589</v>
+        <v>31.28376139015475</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.38364423297238</v>
+        <v>13.90073620597225</v>
       </c>
       <c r="C18">
-        <v>7.87384829230323</v>
+        <v>9.472415156390968</v>
       </c>
       <c r="D18">
-        <v>8.359664100205483</v>
+        <v>6.38452388401543</v>
       </c>
       <c r="E18">
-        <v>8.166121458978212</v>
+        <v>12.67463121547895</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.109355819272756</v>
+        <v>3.695878977877923</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.36612557868259</v>
+        <v>10.12009202624084</v>
       </c>
       <c r="L18">
-        <v>6.476426629308152</v>
+        <v>10.01359340531083</v>
       </c>
       <c r="M18">
-        <v>10.59604338928575</v>
+        <v>14.758100508978</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.33507514136195</v>
+        <v>31.2855352395617</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.31491921142738</v>
+        <v>13.88495461895968</v>
       </c>
       <c r="C19">
-        <v>7.87077863531815</v>
+        <v>9.471011125806946</v>
       </c>
       <c r="D19">
-        <v>8.32198379932276</v>
+        <v>6.374060958976813</v>
       </c>
       <c r="E19">
-        <v>8.164086143509234</v>
+        <v>12.6760030401237</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.109878864371602</v>
+        <v>3.696055658632581</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.31788264036371</v>
+        <v>10.10879661565036</v>
       </c>
       <c r="L19">
-        <v>6.468436783126759</v>
+        <v>10.01381303479907</v>
       </c>
       <c r="M19">
-        <v>10.56932577349613</v>
+        <v>14.75573037747639</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.31174635039012</v>
+        <v>31.286229892559</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.62221155654843</v>
+        <v>13.95603455890749</v>
       </c>
       <c r="C20">
-        <v>7.884593976643678</v>
+        <v>9.477311137675864</v>
       </c>
       <c r="D20">
-        <v>8.490508992925397</v>
+        <v>6.421120587050726</v>
       </c>
       <c r="E20">
-        <v>8.173518323821037</v>
+        <v>12.6699312076431</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.10753097338123</v>
+        <v>3.695265428708151</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.53369130260198</v>
+        <v>10.15966759911276</v>
       </c>
       <c r="L20">
-        <v>6.504549154738827</v>
+        <v>10.01291502830312</v>
       </c>
       <c r="M20">
-        <v>10.68942639259619</v>
+        <v>14.76655329208432</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.41784587190748</v>
+        <v>31.28347776664383</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.62035457465389</v>
+        <v>14.19570088860556</v>
       </c>
       <c r="C21">
-        <v>7.93106071769427</v>
+        <v>9.498156954700598</v>
       </c>
       <c r="D21">
-        <v>9.038708527796596</v>
+        <v>6.578638278212715</v>
       </c>
       <c r="E21">
-        <v>8.210082977908616</v>
+        <v>12.65130639307426</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.099740292026873</v>
+        <v>3.692695058625826</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.23630188302874</v>
+        <v>10.33113793505586</v>
       </c>
       <c r="L21">
-        <v>6.628608249126798</v>
+        <v>10.01147593858945</v>
       </c>
       <c r="M21">
-        <v>11.09038104669216</v>
+        <v>14.80564464434338</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.794219017558</v>
+        <v>31.28077285824213</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.24749190427755</v>
+        <v>14.35270377309241</v>
       </c>
       <c r="C22">
-        <v>7.961494906707735</v>
+        <v>9.511539667513032</v>
       </c>
       <c r="D22">
-        <v>9.383786243488668</v>
+        <v>6.680947809970012</v>
       </c>
       <c r="E22">
-        <v>8.237729939119486</v>
+        <v>12.6404560621649</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.094715509606036</v>
+        <v>3.691078012279889</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.67888471838434</v>
+        <v>10.44342750432809</v>
       </c>
       <c r="L22">
-        <v>6.711692781864638</v>
+        <v>10.01170766598032</v>
       </c>
       <c r="M22">
-        <v>11.3502251726924</v>
+        <v>14.83320013854268</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.05543689799156</v>
+        <v>31.28387797728368</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.91505890987432</v>
+        <v>14.2688916008052</v>
       </c>
       <c r="C23">
-        <v>7.945243633835634</v>
+        <v>9.504419244887275</v>
       </c>
       <c r="D23">
-        <v>9.200804661276976</v>
+        <v>6.626413685778846</v>
       </c>
       <c r="E23">
-        <v>8.2226235052514</v>
+        <v>12.64612621333262</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.097391617721645</v>
+        <v>3.691935328781265</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.44418005961107</v>
+        <v>10.38348783632961</v>
       </c>
       <c r="L23">
-        <v>6.667167197782738</v>
+        <v>10.0114769904638</v>
       </c>
       <c r="M23">
-        <v>11.21176001871965</v>
+        <v>14.81831133513186</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.91459955899195</v>
+        <v>31.28177509421355</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.60546654868547</v>
+        <v>13.95212731946155</v>
       </c>
       <c r="C24">
-        <v>7.883835188191095</v>
+        <v>9.476966375704871</v>
       </c>
       <c r="D24">
-        <v>8.481322764230422</v>
+        <v>6.418538035730304</v>
       </c>
       <c r="E24">
-        <v>8.172982313794741</v>
+        <v>12.67025795999886</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.107659525052971</v>
+        <v>3.695308505008896</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.5219249865859</v>
+        <v>10.15687145526578</v>
       </c>
       <c r="L24">
-        <v>6.502555704822386</v>
+        <v>10.01295839621275</v>
       </c>
       <c r="M24">
-        <v>10.68283989320778</v>
+        <v>14.76594862288431</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.41194559999841</v>
+        <v>31.28360428525468</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.08228004454492</v>
+        <v>13.61374624499343</v>
       </c>
       <c r="C25">
-        <v>7.81769853995205</v>
+        <v>9.446329377577896</v>
       </c>
       <c r="D25">
-        <v>7.647097730747407</v>
+        <v>6.192847548732297</v>
       </c>
       <c r="E25">
-        <v>8.134780160975447</v>
+        <v>12.70197281062477</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.119060754227219</v>
+        <v>3.69921867338369</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.45498645024264</v>
+        <v>9.914607037678481</v>
       </c>
       <c r="L25">
-        <v>6.333785292677296</v>
+        <v>10.01961365081095</v>
       </c>
       <c r="M25">
-        <v>10.10485692569908</v>
+        <v>14.7182482647828</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.93249647327279</v>
+        <v>31.30651101190177</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_152/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_152/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.36931025828373</v>
+        <v>12.8721694410905</v>
       </c>
       <c r="C2">
-        <v>9.422897799850974</v>
+        <v>7.768911787431493</v>
       </c>
       <c r="D2">
-        <v>6.026864162184811</v>
+        <v>6.981215367322894</v>
       </c>
       <c r="E2">
-        <v>12.73022404250567</v>
+        <v>8.119015271233843</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.702333941454289</v>
+        <v>2.127776091312318</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.739424589096744</v>
+        <v>10.60670595175725</v>
       </c>
       <c r="L2">
-        <v>10.02888488763979</v>
+        <v>6.217259248862128</v>
       </c>
       <c r="M2">
-        <v>14.69083017942248</v>
+        <v>9.675458225721826</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>31.34136482988521</v>
+        <v>22.63028465847942</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.20755144935303</v>
+        <v>12.08577138182466</v>
       </c>
       <c r="C3">
-        <v>9.406477123265226</v>
+        <v>7.73571826851497</v>
       </c>
       <c r="D3">
-        <v>5.91527320067409</v>
+        <v>6.496945611021467</v>
       </c>
       <c r="E3">
-        <v>12.75243137404825</v>
+        <v>8.115630671253939</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.704593855806451</v>
+        <v>2.133901108444502</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.623372056246186</v>
+        <v>9.992656695130023</v>
       </c>
       <c r="L3">
-        <v>10.03790385804664</v>
+        <v>6.143203580668914</v>
       </c>
       <c r="M3">
-        <v>14.67712137138527</v>
+        <v>9.383650807026942</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>31.37618706766923</v>
+        <v>22.45547990118017</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.11047279115062</v>
+        <v>11.58188598945816</v>
       </c>
       <c r="C4">
-        <v>9.396129532451353</v>
+        <v>7.715252719549857</v>
       </c>
       <c r="D4">
-        <v>5.847468569719559</v>
+        <v>6.215523811300564</v>
       </c>
       <c r="E4">
-        <v>12.76757820744424</v>
+        <v>8.117017348249595</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.7060552135525</v>
+        <v>2.137775359197121</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.553658276080297</v>
+        <v>9.596399475907434</v>
       </c>
       <c r="L4">
-        <v>10.04479364810983</v>
+        <v>6.1001825150003</v>
       </c>
       <c r="M4">
-        <v>14.67112766708207</v>
+        <v>9.204695401769921</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>31.40308415090342</v>
+        <v>22.36235470778761</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.071524050185</v>
+        <v>11.37140009446277</v>
       </c>
       <c r="C5">
-        <v>9.391846404576867</v>
+        <v>7.706889037252898</v>
       </c>
       <c r="D5">
-        <v>5.820058271639576</v>
+        <v>6.104626028310955</v>
       </c>
       <c r="E5">
-        <v>12.77413095103176</v>
+        <v>8.118433787182767</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.706669336677072</v>
+        <v>2.139383463995884</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.525671219570059</v>
+        <v>9.430114241514495</v>
       </c>
       <c r="L5">
-        <v>10.04794169675047</v>
+        <v>6.083270327212616</v>
       </c>
       <c r="M5">
-        <v>14.66929752719524</v>
+        <v>9.131923494828502</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>31.41543054314414</v>
+        <v>22.327885729457</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.0650949567113</v>
+        <v>11.3361429890618</v>
       </c>
       <c r="C6">
-        <v>9.391131192635461</v>
+        <v>7.705498748098661</v>
       </c>
       <c r="D6">
-        <v>5.815521351095447</v>
+        <v>6.086070078005146</v>
       </c>
       <c r="E6">
-        <v>12.7752420035887</v>
+        <v>8.118719824895091</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.706772436999058</v>
+        <v>2.13965228143624</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.52105044576766</v>
+        <v>9.402213457237544</v>
       </c>
       <c r="L6">
-        <v>10.04848499804331</v>
+        <v>6.080499547813747</v>
       </c>
       <c r="M6">
-        <v>14.66903069676085</v>
+        <v>9.119852089198059</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>31.41756429043268</v>
+        <v>22.32236960947365</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.10994497607706</v>
+        <v>11.579067935089</v>
       </c>
       <c r="C7">
-        <v>9.396072037152649</v>
+        <v>7.715140023522279</v>
       </c>
       <c r="D7">
-        <v>5.847097956664586</v>
+        <v>6.214037758523048</v>
       </c>
       <c r="E7">
-        <v>12.76766503998942</v>
+        <v>8.117033029964627</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.706063420408865</v>
+        <v>2.137796926949378</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.553279080483145</v>
+        <v>9.59417631212678</v>
       </c>
       <c r="L7">
-        <v>10.04483472502188</v>
+        <v>6.099951920417944</v>
       </c>
       <c r="M7">
-        <v>14.67110050221049</v>
+        <v>9.203713215530696</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>31.40324505059784</v>
+        <v>22.3618758801434</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.31309954728628</v>
+        <v>12.60545783918826</v>
       </c>
       <c r="C8">
-        <v>9.417291171357293</v>
+        <v>7.757482589737334</v>
       </c>
       <c r="D8">
-        <v>5.988264483091312</v>
+        <v>6.817646889132771</v>
       </c>
       <c r="E8">
-        <v>12.73756756873</v>
+        <v>8.117117131335155</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.703097887036277</v>
+        <v>2.129864932020976</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.69910998448762</v>
+        <v>10.39898516327815</v>
       </c>
       <c r="L8">
-        <v>10.0317142579325</v>
+        <v>6.191218765196995</v>
       </c>
       <c r="M8">
-        <v>14.68560221816337</v>
+        <v>9.574856239111577</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>31.35222589646382</v>
+        <v>22.56700971620285</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.72712544562063</v>
+        <v>14.61038023395446</v>
       </c>
       <c r="C9">
-        <v>9.456785752711767</v>
+        <v>7.839979991640885</v>
       </c>
       <c r="D9">
-        <v>6.268942465225133</v>
+        <v>7.936024124951692</v>
       </c>
       <c r="E9">
-        <v>12.69052915981029</v>
+        <v>8.145672866879449</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.697865004326369</v>
+        <v>2.115173008734778</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.995807443501342</v>
+        <v>11.82409766258039</v>
       </c>
       <c r="L9">
-        <v>10.01669417081402</v>
+        <v>6.3894460908211</v>
       </c>
       <c r="M9">
-        <v>14.73312918491212</v>
+        <v>10.30033808713042</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.29599890814325</v>
+        <v>23.08589193892663</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.03793161495144</v>
+        <v>15.96949463698752</v>
       </c>
       <c r="C10">
-        <v>9.484498727450518</v>
+        <v>7.900485472155864</v>
       </c>
       <c r="D10">
-        <v>6.475140526334042</v>
+        <v>8.681103815304999</v>
       </c>
       <c r="E10">
-        <v>12.66326117837673</v>
+        <v>8.185209097797239</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.694371686529809</v>
+        <v>2.104848967060031</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.21827028257364</v>
+        <v>12.77787965457045</v>
       </c>
       <c r="L10">
-        <v>10.01215943848612</v>
+        <v>6.546551574702073</v>
       </c>
       <c r="M10">
-        <v>14.77947770820453</v>
+        <v>10.82709246348902</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>31.28146036359784</v>
+        <v>23.54329616080769</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.18014400149806</v>
+        <v>16.55715331545895</v>
       </c>
       <c r="C11">
-        <v>9.496820199387743</v>
+        <v>7.928046551798691</v>
       </c>
       <c r="D11">
-        <v>6.568464573774249</v>
+        <v>9.003960318753206</v>
       </c>
       <c r="E11">
-        <v>12.6524361691523</v>
+        <v>8.207497537420098</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.692857946582139</v>
+        <v>2.100241089065161</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.32001000742144</v>
+        <v>13.19174518853337</v>
       </c>
       <c r="L11">
-        <v>10.01150078093117</v>
+        <v>6.62045201015405</v>
       </c>
       <c r="M11">
-        <v>14.80299404568719</v>
+        <v>11.06452253478328</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>31.28066403968798</v>
+        <v>23.76895102324751</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.23406370879327</v>
+        <v>16.77535622552172</v>
       </c>
       <c r="C12">
-        <v>9.501444713102551</v>
+        <v>7.938494047130279</v>
       </c>
       <c r="D12">
-        <v>6.603697809457707</v>
+        <v>9.123950250601911</v>
       </c>
       <c r="E12">
-        <v>12.64856381410853</v>
+        <v>8.216579153448848</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.692295511338366</v>
+        <v>2.09850776287943</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.35857784060104</v>
+        <v>13.34561395399915</v>
       </c>
       <c r="L12">
-        <v>10.01145254483097</v>
+        <v>6.648780786018631</v>
       </c>
       <c r="M12">
-        <v>14.81224393986339</v>
+        <v>11.15405772143274</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>31.28119858948726</v>
+        <v>23.85700924404768</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.2224489693639</v>
+        <v>16.72855376315425</v>
       </c>
       <c r="C13">
-        <v>9.500450586154422</v>
+        <v>7.936243421659987</v>
       </c>
       <c r="D13">
-        <v>6.596115026592836</v>
+        <v>9.098208453606672</v>
       </c>
       <c r="E13">
-        <v>12.6493877107288</v>
+        <v>8.214594369407219</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.692416163034784</v>
+        <v>2.098880570199363</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.35027030842651</v>
+        <v>13.31260198446981</v>
       </c>
       <c r="L13">
-        <v>10.01145399821884</v>
+        <v>6.642664445464649</v>
       </c>
       <c r="M13">
-        <v>14.81023655865999</v>
+        <v>11.13479220621156</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>31.28104629013967</v>
+        <v>23.83792708964879</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.1845789588102</v>
+        <v>16.57519137385844</v>
       </c>
       <c r="C14">
-        <v>9.497201491747738</v>
+        <v>7.928905825241081</v>
       </c>
       <c r="D14">
-        <v>6.571365580051546</v>
+        <v>9.013877173193134</v>
       </c>
       <c r="E14">
-        <v>12.65211304354829</v>
+        <v>8.208231699923656</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.692811458860354</v>
+        <v>2.100098262209274</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.32318238692372</v>
+        <v>13.20446107770474</v>
       </c>
       <c r="L14">
-        <v>10.01149278500435</v>
+        <v>6.622775764749471</v>
       </c>
       <c r="M14">
-        <v>14.80374816003338</v>
+        <v>11.0718964561473</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>31.28069126467957</v>
+        <v>23.77614291004624</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.16138968691799</v>
+        <v>16.4806906685289</v>
       </c>
       <c r="C15">
-        <v>9.49520593137045</v>
+        <v>7.924412903629841</v>
       </c>
       <c r="D15">
-        <v>6.55619085557594</v>
+        <v>8.961927705525342</v>
       </c>
       <c r="E15">
-        <v>12.65381192169231</v>
+        <v>8.20441860003046</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.693054991883598</v>
+        <v>2.100845605501334</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.3065945481708</v>
+        <v>13.13785094796822</v>
       </c>
       <c r="L15">
-        <v>10.01154271981639</v>
+        <v>6.610638057476819</v>
       </c>
       <c r="M15">
-        <v>14.79981857428531</v>
+        <v>11.03332064525351</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>31.28058266637854</v>
+        <v>23.73864026455652</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.02864986486576</v>
+        <v>15.93047979914969</v>
       </c>
       <c r="C16">
-        <v>9.483687720696201</v>
+        <v>7.898685478866647</v>
       </c>
       <c r="D16">
-        <v>6.469028698710639</v>
+        <v>8.659684448669529</v>
       </c>
       <c r="E16">
-        <v>12.6640003763095</v>
+        <v>8.183841015108179</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.694472125241399</v>
+        <v>2.105151787921971</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.21162909029006</v>
+        <v>12.75043179445833</v>
       </c>
       <c r="L16">
-        <v>10.01223067796305</v>
+        <v>6.541770470604575</v>
       </c>
       <c r="M16">
-        <v>14.77798938375607</v>
+        <v>10.81152644789416</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>31.28162943824719</v>
+        <v>23.52890965623094</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.9473925550012</v>
+        <v>15.58515276217322</v>
       </c>
       <c r="C17">
-        <v>9.476548361023443</v>
+        <v>7.882915604663268</v>
       </c>
       <c r="D17">
-        <v>6.415407857914422</v>
+        <v>8.470179177278885</v>
       </c>
       <c r="E17">
-        <v>12.67065498747933</v>
+        <v>8.172335479858654</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.695360759694863</v>
+        <v>2.107815379748086</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.15348307556663</v>
+        <v>12.50765195606761</v>
       </c>
       <c r="L17">
-        <v>10.0130118662798</v>
+        <v>6.500141348573549</v>
       </c>
       <c r="M17">
-        <v>14.76521738166602</v>
+        <v>10.67485607751826</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>31.28376139015475</v>
+        <v>23.40480619215895</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.90073620597225</v>
+        <v>15.38364423297243</v>
       </c>
       <c r="C18">
-        <v>9.472415156390968</v>
+        <v>7.873848292303216</v>
       </c>
       <c r="D18">
-        <v>6.38452388401543</v>
+        <v>8.359664100205483</v>
       </c>
       <c r="E18">
-        <v>12.67463121547895</v>
+        <v>8.166121458978225</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.695878977877923</v>
+        <v>2.109355819272755</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.12009202624084</v>
+        <v>12.36612557868262</v>
       </c>
       <c r="L18">
-        <v>10.01359340531083</v>
+        <v>6.476426629308193</v>
       </c>
       <c r="M18">
-        <v>14.758100508978</v>
+        <v>10.59604338928574</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>31.2855352395617</v>
+        <v>23.33507514136197</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.88495461895968</v>
+        <v>15.31491921142738</v>
       </c>
       <c r="C19">
-        <v>9.471011125806946</v>
+        <v>7.870778635318556</v>
       </c>
       <c r="D19">
-        <v>6.374060958976813</v>
+        <v>8.321983799322668</v>
       </c>
       <c r="E19">
-        <v>12.6760030401237</v>
+        <v>8.164086143509177</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.696055658632581</v>
+        <v>2.109878864371466</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.10879661565036</v>
+        <v>12.31788264036378</v>
       </c>
       <c r="L19">
-        <v>10.01381303479907</v>
+        <v>6.468436783126654</v>
       </c>
       <c r="M19">
-        <v>14.75573037747639</v>
+        <v>10.56932577349609</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>31.286229892559</v>
+        <v>23.31174635038997</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.95603455890749</v>
+        <v>15.62221155654849</v>
       </c>
       <c r="C20">
-        <v>9.477311137675864</v>
+        <v>7.884593976643547</v>
       </c>
       <c r="D20">
-        <v>6.421120587050726</v>
+        <v>8.49050899292531</v>
       </c>
       <c r="E20">
-        <v>12.6699312076431</v>
+        <v>8.173518323820989</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.695265428708151</v>
+        <v>2.107530973381362</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.15966759911276</v>
+        <v>12.53369130260206</v>
       </c>
       <c r="L20">
-        <v>10.01291502830312</v>
+        <v>6.50454915473883</v>
       </c>
       <c r="M20">
-        <v>14.76655329208432</v>
+        <v>10.68942639259615</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>31.28347776664383</v>
+        <v>23.41784587190731</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.19570088860556</v>
+        <v>16.62035457465393</v>
       </c>
       <c r="C21">
-        <v>9.498156954700598</v>
+        <v>7.931060717694131</v>
       </c>
       <c r="D21">
-        <v>6.578638278212715</v>
+        <v>9.038708527796627</v>
       </c>
       <c r="E21">
-        <v>12.65130639307426</v>
+        <v>8.21008297790863</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.692695058625826</v>
+        <v>2.099740292027009</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.33113793505586</v>
+        <v>13.23630188302875</v>
       </c>
       <c r="L21">
-        <v>10.01147593858945</v>
+        <v>6.628608249126867</v>
       </c>
       <c r="M21">
-        <v>14.80564464434338</v>
+        <v>11.09038104669215</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>31.28077285824213</v>
+        <v>23.79421901755792</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.35270377309241</v>
+        <v>17.24749190427758</v>
       </c>
       <c r="C22">
-        <v>9.511539667513032</v>
+        <v>7.961494906707725</v>
       </c>
       <c r="D22">
-        <v>6.680947809970012</v>
+        <v>9.383786243488796</v>
       </c>
       <c r="E22">
-        <v>12.6404560621649</v>
+        <v>8.237729939119546</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.691078012279889</v>
+        <v>2.094715509606041</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.44342750432809</v>
+        <v>13.67888471838437</v>
       </c>
       <c r="L22">
-        <v>10.01170766598032</v>
+        <v>6.711692781864648</v>
       </c>
       <c r="M22">
-        <v>14.83320013854268</v>
+        <v>11.3502251726924</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>31.28387797728368</v>
+        <v>24.05543689799156</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.2688916008052</v>
+        <v>16.91505890987429</v>
       </c>
       <c r="C23">
-        <v>9.504419244887275</v>
+        <v>7.945243633835636</v>
       </c>
       <c r="D23">
-        <v>6.626413685778846</v>
+        <v>9.200804661276944</v>
       </c>
       <c r="E23">
-        <v>12.64612621333262</v>
+        <v>8.222623505251454</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.691935328781265</v>
+        <v>2.097391617721777</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.38348783632961</v>
+        <v>13.44418005961101</v>
       </c>
       <c r="L23">
-        <v>10.0114769904638</v>
+        <v>6.667167197782748</v>
       </c>
       <c r="M23">
-        <v>14.81831133513186</v>
+        <v>11.21176001871969</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>31.28177509421355</v>
+        <v>23.91459955899208</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.95212731946155</v>
+        <v>15.60546654868545</v>
       </c>
       <c r="C24">
-        <v>9.476966375704871</v>
+        <v>7.883835188190967</v>
       </c>
       <c r="D24">
-        <v>6.418538035730304</v>
+        <v>8.481322764230431</v>
       </c>
       <c r="E24">
-        <v>12.67025795999886</v>
+        <v>8.172982313794694</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.695308505008896</v>
+        <v>2.107659525052703</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.15687145526578</v>
+        <v>12.52192498658588</v>
       </c>
       <c r="L24">
-        <v>10.01295839621275</v>
+        <v>6.502555704822431</v>
       </c>
       <c r="M24">
-        <v>14.76594862288431</v>
+        <v>10.68283989320777</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>31.28360428525468</v>
+        <v>23.41194559999839</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.61374624499343</v>
+        <v>14.08228004454492</v>
       </c>
       <c r="C25">
-        <v>9.446329377577896</v>
+        <v>7.817698539952043</v>
       </c>
       <c r="D25">
-        <v>6.192847548732297</v>
+        <v>7.647097730747412</v>
       </c>
       <c r="E25">
-        <v>12.70197281062477</v>
+        <v>8.134780160975453</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.69921867338369</v>
+        <v>2.119060754227086</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.914607037678481</v>
+        <v>11.45498645024263</v>
       </c>
       <c r="L25">
-        <v>10.01961365081095</v>
+        <v>6.333785292677277</v>
       </c>
       <c r="M25">
-        <v>14.7182482647828</v>
+        <v>10.10485692569908</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>31.30651101190177</v>
+        <v>22.93249647327281</v>
       </c>
     </row>
   </sheetData>
